--- a/Data/branch_wise_nil_us_ss.xlsx
+++ b/Data/branch_wise_nil_us_ss.xlsx
@@ -496,19 +496,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -519,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>15</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>19</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>11</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -588,19 +588,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>15</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -634,19 +634,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -657,19 +657,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
         <v>10</v>
       </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
       <c r="G9">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -726,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
       <c r="G14">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -818,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G16">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -844,16 +844,16 @@
         <v>40</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>11</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
       <c r="G18">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -887,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -910,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20">
         <v>11</v>
       </c>
-      <c r="F20">
-        <v>12</v>
-      </c>
       <c r="G20">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -933,13 +933,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -956,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -982,16 +982,16 @@
         <v>42</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G23">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1002,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1048,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F26">
         <v>12</v>
       </c>
       <c r="G26">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1074,16 +1074,16 @@
         <v>30</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1094,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F28">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G28">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>11</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F29">
         <v>9</v>
@@ -1140,19 +1140,19 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D30">
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>11</v>
+      </c>
+      <c r="F30">
         <v>14</v>
       </c>
-      <c r="E30">
-        <v>8</v>
-      </c>
-      <c r="F30">
-        <v>20</v>
-      </c>
       <c r="G30">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1163,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F31">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G31">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F32">
         <v>6</v>
       </c>
       <c r="G32">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Data/branch_wise_nil_us_ss.xlsx
+++ b/Data/branch_wise_nil_us_ss.xlsx
@@ -502,13 +502,13 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -519,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>15</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
         <v>12</v>
       </c>
-      <c r="F4">
-        <v>11</v>
-      </c>
       <c r="G4">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -574,10 +574,10 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -597,10 +597,10 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -617,10 +617,10 @@
         <v>15</v>
       </c>
       <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
         <v>7</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
       </c>
       <c r="G7">
         <v>45</v>
@@ -634,19 +634,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -657,16 +657,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>52</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
       <c r="G10">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>8</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -726,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
       <c r="G12">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+      <c r="G13">
         <v>27</v>
-      </c>
-      <c r="E13">
-        <v>9</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -818,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -841,19 +841,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>10</v>
@@ -896,10 +896,10 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -910,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G20">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -933,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -956,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22">
         <v>12</v>
       </c>
       <c r="G22">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>13</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23">
         <v>28</v>
@@ -1002,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F24">
         <v>5</v>
       </c>
       <c r="G24">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1054,13 +1054,13 @@
         <v>10</v>
       </c>
       <c r="E26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26">
         <v>12</v>
       </c>
       <c r="G26">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1074,13 +1074,13 @@
         <v>30</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>7</v>
       </c>
       <c r="F27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27">
         <v>46</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29">
         <v>11</v>
@@ -1126,7 +1126,7 @@
         <v>6</v>
       </c>
       <c r="F29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G29">
         <v>47</v>
@@ -1140,19 +1140,19 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>11</v>
       </c>
       <c r="F30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1163,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>6</v>
@@ -1198,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="G32">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Data/branch_wise_nil_us_ss.xlsx
+++ b/Data/branch_wise_nil_us_ss.xlsx
@@ -502,10 +502,10 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>37</v>
@@ -519,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>13</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -545,16 +545,16 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>12</v>
       </c>
       <c r="G4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -568,16 +568,16 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -588,19 +588,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>19</v>
       </c>
       <c r="G6">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -611,19 +611,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -637,7 +637,7 @@
         <v>34</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -646,7 +646,7 @@
         <v>13</v>
       </c>
       <c r="G8">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -666,10 +666,10 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>6</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -703,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11">
         <v>43</v>
@@ -726,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
       <c r="G12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14">
         <v>11</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -798,16 +798,16 @@
         <v>30</v>
       </c>
       <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
         <v>6</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>10</v>
       </c>
-      <c r="F15">
-        <v>8</v>
-      </c>
       <c r="G15">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -818,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G16">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -844,16 +844,16 @@
         <v>36</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -890,16 +890,16 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>3</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -913,10 +913,10 @@
         <v>36</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>13</v>
@@ -933,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>5</v>
       </c>
       <c r="G21">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -956,16 +956,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>34</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D23">
         <v>12</v>
@@ -988,7 +988,7 @@
         <v>13</v>
       </c>
       <c r="F23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23">
         <v>28</v>
@@ -1002,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>6</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1031,13 +1031,13 @@
         <v>5</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1048,10 +1048,10 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26">
         <v>12</v>
@@ -1074,10 +1074,10 @@
         <v>30</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F27">
         <v>8</v>
@@ -1097,13 +1097,13 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28">
         <v>40</v>
@@ -1123,10 +1123,10 @@
         <v>11</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29">
         <v>47</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30">
         <v>15</v>
@@ -1149,10 +1149,10 @@
         <v>11</v>
       </c>
       <c r="F30">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G30">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>23</v>
@@ -1175,7 +1175,7 @@
         <v>13</v>
       </c>
       <c r="G31">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G32">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
